--- a/Automated_Smart_Blinds_Gantt_Chart.xlsx
+++ b/Automated_Smart_Blinds_Gantt_Chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Drew Deraita\Documents\GitHub\AutomatedSmartBlinds\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Revster13\Documents\CST 371 &amp; 372\JP\AutomatedSmartBlinds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26DDD2AF-0BC4-4733-BCF7-3DF46081CE2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5B6C92-46F5-4936-8AED-F7029E25CFF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project Planner" sheetId="1" r:id="rId1"/>
@@ -765,6 +765,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="17" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="8" xfId="19" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -772,27 +793,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="6" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="16" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="17" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="17" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="15" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1357,21 +1357,21 @@
   <dimension ref="A1:BO69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="41.25" style="1" customWidth="1"/>
-    <col min="3" max="6" width="11.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="15.625" style="3" customWidth="1"/>
-    <col min="8" max="27" width="2.75" style="2" customWidth="1"/>
-    <col min="28" max="1025" width="2.75" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.21875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="11.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="3" customWidth="1"/>
+    <col min="8" max="27" width="2.77734375" style="2" customWidth="1"/>
+    <col min="28" max="1025" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:67" ht="60" customHeight="1" x14ac:dyDescent="0.8">
+    <row r="1" spans="2:67" ht="60" customHeight="1" x14ac:dyDescent="1">
       <c r="B1" s="4" t="s">
         <v>72</v>
       </c>
@@ -1381,14 +1381,14 @@
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="2:67" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
+    <row r="2" spans="2:67" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1396,66 +1396,66 @@
         <v>13</v>
       </c>
       <c r="J2" s="8"/>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
       <c r="P2" s="9"/>
-      <c r="Q2" s="33" t="s">
+      <c r="Q2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
       <c r="U2" s="10"/>
-      <c r="V2" s="33" t="s">
+      <c r="V2" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
+      <c r="W2" s="30"/>
+      <c r="X2" s="30"/>
+      <c r="Y2" s="30"/>
       <c r="Z2" s="11"/>
-      <c r="AA2" s="34" t="s">
+      <c r="AA2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="34"/>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="34"/>
-      <c r="AF2" s="34"/>
-      <c r="AG2" s="34"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
       <c r="AH2" s="12"/>
-      <c r="AI2" s="28" t="s">
+      <c r="AI2" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="28"/>
-      <c r="AM2" s="28"/>
-      <c r="AN2" s="28"/>
-      <c r="AO2" s="28"/>
-      <c r="AP2" s="28"/>
-    </row>
-    <row r="3" spans="2:67" s="13" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="AJ2" s="25"/>
+      <c r="AK2" s="25"/>
+      <c r="AL2" s="25"/>
+      <c r="AM2" s="25"/>
+      <c r="AN2" s="25"/>
+      <c r="AO2" s="25"/>
+      <c r="AP2" s="25"/>
+    </row>
+    <row r="3" spans="2:67" s="13" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="28" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="14" t="s">
@@ -1481,13 +1481,13 @@
       <c r="Z3" s="16"/>
       <c r="AA3" s="16"/>
     </row>
-    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
+    <row r="4" spans="2:67" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
       <c r="H4" s="17">
         <v>1</v>
       </c>
@@ -1669,15 +1669,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:67" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="2:67" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="19"/>
@@ -1699,7 +1699,7 @@
       <c r="Z5" s="19"/>
       <c r="AA5" s="19"/>
     </row>
-    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>16</v>
       </c>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
@@ -1759,7 +1759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
@@ -1779,15 +1779,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:67" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+    <row r="10" spans="2:67" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
       <c r="J10" s="19"/>
@@ -1809,7 +1809,7 @@
       <c r="Z10" s="19"/>
       <c r="AA10" s="19"/>
     </row>
-    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="20" t="s">
         <v>15</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="20" t="s">
         <v>20</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="20" t="s">
         <v>21</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="20" t="s">
         <v>22</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="20" t="s">
         <v>23</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:67" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="20" t="s">
         <v>24</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="20" t="s">
         <v>25</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="20" t="s">
         <v>26</v>
       </c>
@@ -1969,7 +1969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="20" t="s">
         <v>27</v>
       </c>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="20" t="s">
         <v>28</v>
       </c>
@@ -2009,7 +2009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="20" t="s">
         <v>29</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="20" t="s">
         <v>30</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="20" t="s">
         <v>31</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="20" t="s">
         <v>32</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="20" t="s">
         <v>33</v>
       </c>
@@ -2129,7 +2129,7 @@
       <c r="Z25" s="24"/>
       <c r="AA25" s="24"/>
     </row>
-    <row r="26" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="20" t="s">
         <v>34</v>
       </c>
@@ -2169,7 +2169,7 @@
       <c r="Z26" s="24"/>
       <c r="AA26" s="24"/>
     </row>
-    <row r="27" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="20" t="s">
         <v>35</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="Z27" s="24"/>
       <c r="AA27" s="24"/>
     </row>
-    <row r="28" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:27" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="20" t="s">
         <v>36</v>
       </c>
@@ -2249,15 +2249,15 @@
       <c r="Z28" s="24"/>
       <c r="AA28" s="24"/>
     </row>
-    <row r="29" spans="2:27" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="26" t="s">
+    <row r="29" spans="2:27" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
@@ -2279,7 +2279,7 @@
       <c r="Z29" s="19"/>
       <c r="AA29" s="19"/>
     </row>
-    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="20" t="s">
         <v>15</v>
       </c>
@@ -2299,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="20" t="s">
         <v>38</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="20" t="s">
         <v>39</v>
       </c>
@@ -2339,7 +2339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="20" t="s">
         <v>40</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="20" t="s">
         <v>41</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="20" t="s">
         <v>42</v>
       </c>
@@ -2390,16 +2390,16 @@
         <v>1</v>
       </c>
       <c r="E35" s="21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F35" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="20" t="s">
         <v>43</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="20" t="s">
         <v>44</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="20" t="s">
         <v>45</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="20" t="s">
         <v>46</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="20" t="s">
         <v>47</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="20" t="s">
         <v>48</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="20" t="s">
         <v>49</v>
       </c>
@@ -2530,16 +2530,16 @@
         <v>1</v>
       </c>
       <c r="E42" s="21">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="F42" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="20" t="s">
         <v>50</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="20" t="s">
         <v>51</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="20" t="s">
         <v>52</v>
       </c>
@@ -2599,15 +2599,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:27" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="26" t="s">
+    <row r="46" spans="2:27" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
       <c r="J46" s="19"/>
@@ -2629,7 +2629,7 @@
       <c r="Z46" s="19"/>
       <c r="AA46" s="19"/>
     </row>
-    <row r="47" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="20" t="s">
         <v>15</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:27" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="20" t="s">
         <v>54</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="20" t="s">
         <v>55</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="20" t="s">
         <v>56</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="20" t="s">
         <v>57</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="20" t="s">
         <v>58</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="20" t="s">
         <v>59</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="20" t="s">
         <v>60</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.35">
       <c r="B55" s="20" t="s">
         <v>61</v>
       </c>
@@ -2809,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="20" t="s">
         <v>62</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="20" t="s">
         <v>63</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="20" t="s">
         <v>64</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="20" t="s">
         <v>65</v>
       </c>
@@ -2889,7 +2889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="20" t="s">
         <v>66</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="20" t="s">
         <v>67</v>
       </c>
@@ -2929,39 +2929,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="27" t="s">
+    <row r="63" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-      <c r="I63" s="27"/>
-      <c r="J63" s="27"/>
-      <c r="K63" s="27"/>
-    </row>
-    <row r="65" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="34"/>
+      <c r="C63" s="34"/>
+      <c r="D63" s="34"/>
+      <c r="E63" s="34"/>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" s="34"/>
+      <c r="K63" s="34"/>
+    </row>
+    <row r="65" spans="2:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="2:2" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:2" ht="69.599999999999994" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="2:2" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" spans="2:2" ht="51.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:2" ht="35.4" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="69" spans="2:2" ht="52.2" x14ac:dyDescent="0.35">
       <c r="B69" s="1" t="s">
         <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="A63:K63"/>
     <mergeCell ref="AI2:AP2"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -2974,11 +2979,6 @@
     <mergeCell ref="Q2:T2"/>
     <mergeCell ref="V2:Y2"/>
     <mergeCell ref="AA2:AG2"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="A63:K63"/>
   </mergeCells>
   <conditionalFormatting sqref="H5:BO61">
     <cfRule type="expression" dxfId="9" priority="2">
@@ -3097,9 +3097,9 @@
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1025" width="11.125" customWidth="1"/>
+    <col min="1" max="1025" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/Automated_Smart_Blinds_Gantt_Chart.xlsx
+++ b/Automated_Smart_Blinds_Gantt_Chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Revster13\Documents\CST 371 &amp; 372\JP\AutomatedSmartBlinds\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5B6C92-46F5-4936-8AED-F7029E25CFF8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B34C98C-F56C-4EC4-9908-1D35118B4AF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1357,8 +1357,8 @@
   <dimension ref="A1:BO69"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+      <pane ySplit="2" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.35"/>
@@ -2304,13 +2304,13 @@
         <v>38</v>
       </c>
       <c r="C31" s="21">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D31" s="21">
         <v>1</v>
       </c>
       <c r="E31" s="21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F31" s="21">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>39</v>
       </c>
       <c r="C32" s="21">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D32" s="21">
         <v>1</v>
@@ -2344,7 +2344,7 @@
         <v>40</v>
       </c>
       <c r="C33" s="21">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D33" s="21">
         <v>1</v>
@@ -2364,7 +2364,7 @@
         <v>41</v>
       </c>
       <c r="C34" s="21">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D34" s="21">
         <v>1</v>
@@ -2384,13 +2384,13 @@
         <v>42</v>
       </c>
       <c r="C35" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" s="21">
         <v>1</v>
       </c>
       <c r="E35" s="21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F35" s="21">
         <v>1</v>
@@ -2404,7 +2404,7 @@
         <v>43</v>
       </c>
       <c r="C36" s="21">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D36" s="21">
         <v>1</v>
@@ -2424,7 +2424,7 @@
         <v>44</v>
       </c>
       <c r="C37" s="21">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D37" s="21">
         <v>1</v>
@@ -2444,7 +2444,7 @@
         <v>45</v>
       </c>
       <c r="C38" s="21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D38" s="21">
         <v>2</v>
@@ -2464,13 +2464,13 @@
         <v>46</v>
       </c>
       <c r="C39" s="21">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39" s="21">
         <v>1</v>
       </c>
       <c r="E39" s="21">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F39" s="21">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>47</v>
       </c>
       <c r="C40" s="21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D40" s="21">
         <v>1</v>
@@ -2504,7 +2504,7 @@
         <v>48</v>
       </c>
       <c r="C41" s="21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D41" s="21">
         <v>1</v>
@@ -2524,13 +2524,13 @@
         <v>49</v>
       </c>
       <c r="C42" s="21">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D42" s="21">
         <v>1</v>
       </c>
       <c r="E42" s="21">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F42" s="21">
         <v>1</v>
@@ -2544,7 +2544,7 @@
         <v>50</v>
       </c>
       <c r="C43" s="21">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D43" s="21">
         <v>1</v>
@@ -2564,7 +2564,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="21">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D44" s="21">
         <v>1</v>
@@ -2584,7 +2584,7 @@
         <v>52</v>
       </c>
       <c r="C45" s="21">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D45" s="21">
         <v>1</v>
